--- a/01-dbdata/Documento/Actividades.xlsx
+++ b/01-dbdata/Documento/Actividades.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.3.2.124\xampp2\AABNPHU\proyecto Correspondencia\Documento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\repollo\correspondencia\01-dbdata\Documento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFA2A7C-8FD7-4F1F-B97C-E6EF5327830B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241641EF-AE6B-4F25-BD18-87CF02DC95C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6CB0A50E-343C-4140-A8B3-1768BD680722}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{6CB0A50E-343C-4140-A8B3-1768BD680722}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Fecha de Inicio: 19/08/2019</t>
   </si>
@@ -93,6 +94,15 @@
   </si>
   <si>
     <t>Fecha de Final: 02/09/2019</t>
+  </si>
+  <si>
+    <t>maqutaciones</t>
+  </si>
+  <si>
+    <t>mesa de entrada</t>
+  </si>
+  <si>
+    <t>emisor</t>
   </si>
 </sst>
 </file>
@@ -489,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781BA799-74D8-4C76-9F90-2BCE66CFAD54}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A16" sqref="A16:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,6 +662,21 @@
         <v>20</v>
       </c>
     </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
